--- a/atendimentos/Controle Atualizado 2024.xlsx
+++ b/atendimentos/Controle Atualizado 2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CADASTRO UNICO\Documents\LUCAS\atendimentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CADASTRO UNICO\Documents\LUCAS\ExtensionBotJs-main\borPdf\atendimentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="311">
   <si>
     <t xml:space="preserve">                                        Controle de atendimento, Dezembro de 2022</t>
   </si>
@@ -664,6 +664,45 @@
   </si>
   <si>
     <t>CPF: 956.995.973-87</t>
+  </si>
+  <si>
+    <t>Nome: EDNA MARIA DE JESUS MOURA</t>
+  </si>
+  <si>
+    <t>CPF: 380.868.208-66</t>
+  </si>
+  <si>
+    <t>21/08/2024</t>
+  </si>
+  <si>
+    <t>Nome: GENILDA DA CRUZ DE JESUS SILVA</t>
+  </si>
+  <si>
+    <t>CPF: 029.902.173-47</t>
+  </si>
+  <si>
+    <t>22/08/2024</t>
+  </si>
+  <si>
+    <t>Nome: JOSIMARIA DOS SANTOS SILVA</t>
+  </si>
+  <si>
+    <t>CPF: 046.995.473-62</t>
+  </si>
+  <si>
+    <t>Nome: GEZILDA MENDES DE SOUSA</t>
+  </si>
+  <si>
+    <t>CPF: 966.473.373-34</t>
+  </si>
+  <si>
+    <t>23/08/2024</t>
+  </si>
+  <si>
+    <t>Nome: REGILENE VIEIRA BARRETO E SILVA</t>
+  </si>
+  <si>
+    <t>CPF: 041.906.393-54</t>
   </si>
   <si>
     <t>2+N49:Z49</t>
@@ -951,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -960,12 +999,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,9 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:M7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12077,8 +12108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12237,11 +12268,11 @@
       <c r="M6" s="4"/>
       <c r="O6">
         <f>COUNTIF(M9:M301,"&gt;0")</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P6" s="3">
         <f>SUM(M9:M301)</f>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="Q6">
         <f>COUNTIF(K9:K301,"INCLUSÂO")</f>
@@ -12253,11 +12284,11 @@
       </c>
       <c r="S6">
         <f>COUNTIF(K9:K301,"ALTERAÇÃO")</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="T6">
         <f>SUMIF(K9:K301,"ALTERAÇÃO",M9:M301)</f>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="U6">
         <f>COUNTIF(K9:K301,"TRANSFERENCIA")</f>
@@ -12830,11 +12861,11 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="6">
         <v>45513</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
         <v>184</v>
       </c>
@@ -13149,103 +13180,148 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
+      <c r="A37" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" t="s">
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
       </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+      <c r="A38" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" t="s">
         <v>14</v>
       </c>
       <c r="K38" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
       </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+      <c r="A39" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" t="s">
         <v>14</v>
       </c>
       <c r="K39" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
       </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
+      <c r="A40" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" t="s">
         <v>14</v>
       </c>
       <c r="K40" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
       </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
+      <c r="A41" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" t="s">
         <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -13508,7 +13584,7 @@
         <v>16</v>
       </c>
       <c r="O54" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19203,7 +19279,7 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:V295" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:V39 A42:V295 A40:J40 L40:V40 A41:J41 L41:V41" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -19472,12 +19548,12 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -19501,12 +19577,12 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -19530,12 +19606,12 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -19559,12 +19635,12 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -19588,12 +19664,12 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -19617,12 +19693,12 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -19646,12 +19722,12 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -19675,12 +19751,12 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -19704,12 +19780,12 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -19733,12 +19809,12 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -19762,12 +19838,12 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -19791,12 +19867,12 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -19820,12 +19896,12 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -19849,12 +19925,12 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -19878,12 +19954,12 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -19907,12 +19983,12 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -19936,12 +20012,12 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -19965,12 +20041,12 @@
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -19994,12 +20070,12 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -20023,12 +20099,12 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -20052,12 +20128,12 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -20081,12 +20157,12 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -20110,12 +20186,12 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -20139,12 +20215,12 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -20168,12 +20244,12 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -20197,12 +20273,12 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -20226,12 +20302,12 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -20255,12 +20331,12 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -20284,12 +20360,12 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -20313,12 +20389,12 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -20342,12 +20418,12 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -20371,12 +20447,12 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -20400,12 +20476,12 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -20429,12 +20505,12 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -20458,12 +20534,12 @@
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -20487,12 +20563,12 @@
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -20516,12 +20592,12 @@
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -20545,7 +20621,7 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -20572,7 +20648,7 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -20599,12 +20675,12 @@
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -20623,17 +20699,17 @@
     </row>
     <row r="49" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -20657,12 +20733,12 @@
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -20759,7 +20835,7 @@
         <v>16</v>
       </c>
       <c r="O54" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
